--- a/РАБОЧИЙ СТОЛ/12,09,25 Горняк(Донецк) ЗПФ доставка на 01,10,25/Заказ ГОРНЯК Доставка Донецк 01.10.25.xlsx
+++ b/РАБОЧИЙ СТОЛ/12,09,25 Горняк(Донецк) ЗПФ доставка на 01,10,25/Заказ ГОРНЯК Доставка Донецк 01.10.25.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.29.245\отдел логистики\Мельников А.В\Стародворье\НОВОЕ ВРЕМЯ\61-01.10.25_Д\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.29.245\отдел логистики\Мельников А.В\Стародворье\НОВОЕ ВРЕМЯ\62-01.10.25_Д\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1205,7 +1205,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2120,19 +2120,19 @@
         <v>55</v>
       </c>
       <c r="I25" s="7">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="J25" s="77">
         <f t="shared" si="0"/>
-        <v>362.88</v>
+        <v>846.71999999999991</v>
       </c>
       <c r="K25" s="48">
         <f t="shared" si="1"/>
-        <v>451.53360000000004</v>
+        <v>1053.5784000000001</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="M25" s="29"/>
       <c r="N25" s="8"/>
@@ -2567,19 +2567,19 @@
         <v>55</v>
       </c>
       <c r="I35" s="7">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="J35" s="77">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>1050</v>
       </c>
       <c r="K35" s="48">
         <f t="shared" si="1"/>
-        <v>362.95279999999997</v>
+        <v>1296.26</v>
       </c>
       <c r="L35" s="48">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="M35" s="29"/>
       <c r="N35" s="8"/>
@@ -2693,19 +2693,19 @@
         <v>65</v>
       </c>
       <c r="I38" s="7">
-        <v>154</v>
+        <v>406</v>
       </c>
       <c r="J38" s="77">
         <f t="shared" ref="J38:J58" si="3">I38*$D38</f>
-        <v>369.59999999999997</v>
+        <v>974.4</v>
       </c>
       <c r="K38" s="48">
         <f t="shared" ref="K38:K58" si="4">I38*$E38</f>
-        <v>412.72</v>
+        <v>1088.0800000000002</v>
       </c>
       <c r="L38" s="48">
         <f t="shared" ref="L38:L58" si="5">I38/$F38</f>
-        <v>2.2000000000000002</v>
+        <v>5.8</v>
       </c>
       <c r="M38" s="29"/>
       <c r="N38" s="8"/>
@@ -2736,20 +2736,18 @@
       <c r="H39" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="7">
-        <v>42</v>
-      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="77">
         <f t="shared" si="3"/>
-        <v>100.8</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48">
         <f t="shared" si="4"/>
-        <v>112.56</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M39" s="29"/>
       <c r="N39" s="8"/>
@@ -2780,20 +2778,18 @@
       <c r="H40" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="7">
-        <v>14</v>
-      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="77">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K40" s="48">
         <f t="shared" si="4"/>
-        <v>51.850399999999993</v>
+        <v>0</v>
       </c>
       <c r="L40" s="48">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="29"/>
       <c r="N40" s="8"/>
@@ -2827,9 +2823,7 @@
       <c r="H41" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2873,9 +2867,7 @@
       <c r="H42" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2920,20 +2912,18 @@
       <c r="H43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="7">
-        <v>84</v>
-      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="77">
         <f t="shared" si="3"/>
-        <v>141.12</v>
+        <v>0</v>
       </c>
       <c r="K43" s="48">
         <f t="shared" si="4"/>
-        <v>176.55119999999999</v>
+        <v>0</v>
       </c>
       <c r="L43" s="48">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="8"/>
@@ -2967,9 +2957,7 @@
       <c r="H44" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3014,20 +3002,18 @@
       <c r="H45" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="7">
-        <v>182</v>
-      </c>
+      <c r="I45" s="7"/>
       <c r="J45" s="77">
         <f t="shared" si="3"/>
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K45" s="48">
         <f t="shared" si="4"/>
-        <v>616.61599999999999</v>
+        <v>0</v>
       </c>
       <c r="L45" s="48">
         <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="8"/>
@@ -3061,9 +3047,7 @@
       <c r="H46" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3108,9 +3092,7 @@
       <c r="H47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3154,9 +3136,7 @@
       <c r="H48" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3200,9 +3180,7 @@
       <c r="H49" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3244,9 +3222,7 @@
       <c r="H50" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3289,20 +3265,18 @@
       <c r="H51" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="7">
-        <v>204</v>
-      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="77">
         <f t="shared" si="3"/>
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="K51" s="48">
         <f t="shared" si="4"/>
-        <v>1277.04</v>
+        <v>0</v>
       </c>
       <c r="L51" s="48">
         <f t="shared" si="5"/>
-        <v>2.4285714285714284</v>
+        <v>0</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="8"/>
@@ -3333,9 +3307,7 @@
       <c r="H52" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
+      <c r="I52" s="7"/>
       <c r="J52" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3622,23 +3594,23 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25">
         <f>SUM(I8:I58)</f>
-        <v>2320</v>
+        <v>2466</v>
       </c>
       <c r="J59" s="30">
         <f>SUM(J8:J58)</f>
-        <v>8631.24</v>
+        <v>8421.9599999999991</v>
       </c>
       <c r="K59" s="30">
         <f>SUM(K8:K58)</f>
-        <v>9767.8660000000018</v>
+        <v>9743.9604000000018</v>
       </c>
       <c r="L59" s="49">
         <f>SUM(L8:L58)</f>
-        <v>29.585714285714285</v>
+        <v>32.757142857142853</v>
       </c>
       <c r="M59" s="47">
         <f>ROUNDUP(L59,0)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N59" s="11"/>
       <c r="O59" s="2"/>
@@ -3658,7 +3630,7 @@
       <c r="K60" s="12"/>
       <c r="L60" s="31">
         <f>L59*20+K59</f>
-        <v>10359.580285714288</v>
+        <v>10399.103257142859</v>
       </c>
       <c r="M60" s="28"/>
       <c r="N60" s="9"/>
